--- a/level-2/leetcode/non-linear-data-structures-2/leetcode-nonlinear-data-structures-2.xlsx
+++ b/level-2/leetcode/non-linear-data-structures-2/leetcode-nonlinear-data-structures-2.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{183C723C-2A03-4BA5-A286-6F6C9B10DBE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE818355-AD85-43CE-AAD2-C18CE56B899E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="713" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -628,7 +628,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -646,32 +646,6 @@
     </font>
     <font>
       <b/>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <sz val="14"/>
       <color rgb="FFFF0000"/>
       <name val="Tahoma"/>
@@ -686,26 +660,18 @@
     </font>
     <font>
       <b/>
-      <sz val="16"/>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="Cambria"/>
-      <family val="1"/>
-      <scheme val="major"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
     <font>
+      <b/>
       <u/>
-      <sz val="14"/>
+      <sz val="12"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -787,67 +753,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -855,141 +805,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="19">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1334,91 +1150,90 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14" style="3" customWidth="1"/>
-    <col min="3" max="7" width="15.109375" style="9" customWidth="1"/>
-    <col min="8" max="8" width="11.6640625" style="9" customWidth="1"/>
-    <col min="9" max="9" width="67.33203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="67.33203125" style="12" customWidth="1"/>
+    <col min="1" max="1" width="33.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" style="8" customWidth="1"/>
+    <col min="3" max="7" width="15.109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" style="2" customWidth="1"/>
+    <col min="9" max="10" width="67.33203125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:10" s="9" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="13" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="14"/>
-    </row>
-    <row r="3" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="18"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="6" t="e">
-        <f t="shared" ref="C3:H3" si="0">AVERAGE(C4:C184)</f>
+      <c r="J1" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="11"/>
+    </row>
+    <row r="3" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="1" t="e">
+        <f t="shared" ref="C3:H3" si="0">AVERAGE(C4:C250)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D3" s="6" t="e">
+      <c r="D3" s="1" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E3" s="6" t="e">
+      <c r="E3" s="1" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F3" s="6" t="e">
+      <c r="F3" s="1" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G3" s="6" t="e">
+      <c r="G3" s="1" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I3" s="5">
-        <f>COUNTA(I4:I834)</f>
-        <v>0</v>
-      </c>
-      <c r="J3" s="5">
-        <f>COUNTA(J4:J954)</f>
+      <c r="I3" s="1">
+        <f>COUNTA(I4:I250)</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
+        <f>COUNTA(J4:J250)</f>
         <v>181</v>
       </c>
     </row>
@@ -1429,17 +1244,11 @@
       <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="7">
+      <c r="H4" s="3">
         <f>SUM(C4:G4)</f>
         <v>0</v>
       </c>
-      <c r="I4" s="2"/>
-      <c r="J4" s="10" t="s">
+      <c r="J4" s="5" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1450,16 +1259,11 @@
       <c r="B5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="7">
+      <c r="H5" s="3">
         <f>SUM(C5:G5)</f>
         <v>0</v>
       </c>
-      <c r="J5" s="10" t="s">
+      <c r="J5" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1470,17 +1274,11 @@
       <c r="B6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="7">
+      <c r="H6" s="3">
         <f>SUM(C6:G6)</f>
         <v>0</v>
       </c>
-      <c r="I6" s="2"/>
-      <c r="J6" s="10" t="s">
+      <c r="J6" s="5" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1491,17 +1289,11 @@
       <c r="B7" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="7">
+      <c r="H7" s="3">
         <f>SUM(C7:G7)</f>
         <v>0</v>
       </c>
-      <c r="I7" s="2"/>
-      <c r="J7" s="10" t="s">
+      <c r="J7" s="5" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1512,17 +1304,11 @@
       <c r="B8" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="7">
+      <c r="H8" s="3">
         <f t="shared" ref="H8:H71" si="1">SUM(C8:G8)</f>
         <v>0</v>
       </c>
-      <c r="I8" s="2"/>
-      <c r="J8" s="10" t="s">
+      <c r="J8" s="5" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1533,17 +1319,11 @@
       <c r="B9" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I9" s="2"/>
-      <c r="J9" s="10" t="s">
+      <c r="H9" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="5" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1554,17 +1334,11 @@
       <c r="B10" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I10" s="2"/>
-      <c r="J10" s="10" t="s">
+      <c r="H10" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J10" s="5" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1575,17 +1349,11 @@
       <c r="B11" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I11" s="2"/>
-      <c r="J11" s="10" t="s">
+      <c r="H11" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J11" s="5" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1596,17 +1364,11 @@
       <c r="B12" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I12" s="2"/>
-      <c r="J12" s="10" t="s">
+      <c r="H12" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="5" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1617,17 +1379,11 @@
       <c r="B13" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I13" s="2"/>
-      <c r="J13" s="10" t="s">
+      <c r="H13" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="5" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1638,17 +1394,11 @@
       <c r="B14" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I14" s="2"/>
-      <c r="J14" s="10" t="s">
+      <c r="H14" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="5" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1659,17 +1409,11 @@
       <c r="B15" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I15" s="2"/>
-      <c r="J15" s="10" t="s">
+      <c r="H15" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="5" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1680,17 +1424,11 @@
       <c r="B16" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I16" s="2"/>
-      <c r="J16" s="10" t="s">
+      <c r="H16" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="5" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1701,17 +1439,11 @@
       <c r="B17" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I17" s="2"/>
-      <c r="J17" s="10" t="s">
+      <c r="H17" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J17" s="5" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1722,17 +1454,11 @@
       <c r="B18" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I18" s="2"/>
-      <c r="J18" s="10" t="s">
+      <c r="H18" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="5" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1743,17 +1469,11 @@
       <c r="B19" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I19" s="2"/>
-      <c r="J19" s="10" t="s">
+      <c r="H19" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="5" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1764,17 +1484,11 @@
       <c r="B20" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I20" s="2"/>
-      <c r="J20" s="10" t="s">
+      <c r="H20" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J20" s="5" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1785,17 +1499,11 @@
       <c r="B21" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I21" s="2"/>
-      <c r="J21" s="10" t="s">
+      <c r="H21" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J21" s="5" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1806,17 +1514,11 @@
       <c r="B22" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I22" s="2"/>
-      <c r="J22" s="10" t="s">
+      <c r="H22" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J22" s="5" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1827,17 +1529,11 @@
       <c r="B23" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I23" s="2"/>
-      <c r="J23" s="10" t="s">
+      <c r="H23" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J23" s="5" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1848,17 +1544,11 @@
       <c r="B24" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I24" s="2"/>
-      <c r="J24" s="10" t="s">
+      <c r="H24" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J24" s="5" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1869,17 +1559,11 @@
       <c r="B25" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I25" s="2"/>
-      <c r="J25" s="10" t="s">
+      <c r="H25" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J25" s="5" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1890,17 +1574,11 @@
       <c r="B26" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I26" s="2"/>
-      <c r="J26" s="10" t="s">
+      <c r="H26" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J26" s="5" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1911,17 +1589,11 @@
       <c r="B27" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I27" s="2"/>
-      <c r="J27" s="10" t="s">
+      <c r="H27" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J27" s="5" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1932,17 +1604,11 @@
       <c r="B28" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I28" s="2"/>
-      <c r="J28" s="10" t="s">
+      <c r="H28" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J28" s="5" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1953,17 +1619,11 @@
       <c r="B29" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I29" s="2"/>
-      <c r="J29" s="10" t="s">
+      <c r="H29" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J29" s="5" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1974,17 +1634,11 @@
       <c r="B30" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I30" s="2"/>
-      <c r="J30" s="10" t="s">
+      <c r="H30" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J30" s="5" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1995,17 +1649,11 @@
       <c r="B31" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I31" s="2"/>
-      <c r="J31" s="10" t="s">
+      <c r="H31" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J31" s="5" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2016,17 +1664,11 @@
       <c r="B32" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I32" s="2"/>
-      <c r="J32" s="10" t="s">
+      <c r="H32" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J32" s="5" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2037,17 +1679,11 @@
       <c r="B33" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I33" s="2"/>
-      <c r="J33" s="10" t="s">
+      <c r="H33" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J33" s="5" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2058,17 +1694,11 @@
       <c r="B34" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I34" s="2"/>
-      <c r="J34" s="10" t="s">
+      <c r="H34" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J34" s="5" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2079,17 +1709,11 @@
       <c r="B35" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I35" s="2"/>
-      <c r="J35" s="10" t="s">
+      <c r="H35" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J35" s="5" t="s">
         <v>48</v>
       </c>
     </row>
@@ -2100,17 +1724,11 @@
       <c r="B36" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I36" s="2"/>
-      <c r="J36" s="10" t="s">
+      <c r="H36" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J36" s="5" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2121,17 +1739,11 @@
       <c r="B37" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I37" s="2"/>
-      <c r="J37" s="10" t="s">
+      <c r="H37" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J37" s="5" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2142,17 +1754,11 @@
       <c r="B38" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I38" s="2"/>
-      <c r="J38" s="10" t="s">
+      <c r="H38" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J38" s="5" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2163,17 +1769,11 @@
       <c r="B39" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I39" s="2"/>
-      <c r="J39" s="10" t="s">
+      <c r="H39" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J39" s="5" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2184,17 +1784,11 @@
       <c r="B40" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I40" s="2"/>
-      <c r="J40" s="10" t="s">
+      <c r="H40" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J40" s="5" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2205,17 +1799,11 @@
       <c r="B41" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I41" s="2"/>
-      <c r="J41" s="10" t="s">
+      <c r="H41" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J41" s="5" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2226,17 +1814,11 @@
       <c r="B42" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I42" s="2"/>
-      <c r="J42" s="10" t="s">
+      <c r="H42" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J42" s="5" t="s">
         <v>55</v>
       </c>
     </row>
@@ -2247,17 +1829,11 @@
       <c r="B43" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I43" s="2"/>
-      <c r="J43" s="10" t="s">
+      <c r="H43" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J43" s="5" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2268,17 +1844,11 @@
       <c r="B44" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C44" s="8"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I44" s="2"/>
-      <c r="J44" s="10" t="s">
+      <c r="H44" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J44" s="5" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2289,17 +1859,11 @@
       <c r="B45" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C45" s="8"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="8"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I45" s="2"/>
-      <c r="J45" s="10" t="s">
+      <c r="H45" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J45" s="5" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2310,17 +1874,11 @@
       <c r="B46" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C46" s="8"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="8"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I46" s="2"/>
-      <c r="J46" s="10" t="s">
+      <c r="H46" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J46" s="5" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2331,17 +1889,11 @@
       <c r="B47" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C47" s="8"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="8"/>
-      <c r="F47" s="8"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I47" s="2"/>
-      <c r="J47" s="10" t="s">
+      <c r="H47" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J47" s="5" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2352,17 +1904,11 @@
       <c r="B48" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C48" s="8"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="8"/>
-      <c r="F48" s="8"/>
-      <c r="G48" s="8"/>
-      <c r="H48" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I48" s="2"/>
-      <c r="J48" s="10" t="s">
+      <c r="H48" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J48" s="5" t="s">
         <v>61</v>
       </c>
     </row>
@@ -2373,17 +1919,11 @@
       <c r="B49" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="8"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I49" s="2"/>
-      <c r="J49" s="10" t="s">
+      <c r="H49" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J49" s="5" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2394,17 +1934,11 @@
       <c r="B50" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C50" s="8"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="8"/>
-      <c r="F50" s="8"/>
-      <c r="G50" s="8"/>
-      <c r="H50" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I50" s="2"/>
-      <c r="J50" s="10" t="s">
+      <c r="H50" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J50" s="5" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2415,17 +1949,11 @@
       <c r="B51" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C51" s="8"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="8"/>
-      <c r="F51" s="8"/>
-      <c r="G51" s="8"/>
-      <c r="H51" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I51" s="2"/>
-      <c r="J51" s="10" t="s">
+      <c r="H51" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J51" s="5" t="s">
         <v>64</v>
       </c>
     </row>
@@ -2436,17 +1964,11 @@
       <c r="B52" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C52" s="8"/>
-      <c r="D52" s="8"/>
-      <c r="E52" s="8"/>
-      <c r="F52" s="8"/>
-      <c r="G52" s="8"/>
-      <c r="H52" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I52" s="2"/>
-      <c r="J52" s="10" t="s">
+      <c r="H52" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J52" s="5" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2457,17 +1979,11 @@
       <c r="B53" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C53" s="8"/>
-      <c r="D53" s="8"/>
-      <c r="E53" s="8"/>
-      <c r="F53" s="8"/>
-      <c r="G53" s="8"/>
-      <c r="H53" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I53" s="2"/>
-      <c r="J53" s="10" t="s">
+      <c r="H53" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J53" s="5" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2478,17 +1994,11 @@
       <c r="B54" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C54" s="8"/>
-      <c r="D54" s="8"/>
-      <c r="E54" s="8"/>
-      <c r="F54" s="8"/>
-      <c r="G54" s="8"/>
-      <c r="H54" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I54" s="2"/>
-      <c r="J54" s="10" t="s">
+      <c r="H54" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J54" s="5" t="s">
         <v>67</v>
       </c>
     </row>
@@ -2499,17 +2009,11 @@
       <c r="B55" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C55" s="8"/>
-      <c r="D55" s="8"/>
-      <c r="E55" s="8"/>
-      <c r="F55" s="8"/>
-      <c r="G55" s="8"/>
-      <c r="H55" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I55" s="2"/>
-      <c r="J55" s="10" t="s">
+      <c r="H55" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J55" s="5" t="s">
         <v>68</v>
       </c>
     </row>
@@ -2520,17 +2024,11 @@
       <c r="B56" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C56" s="8"/>
-      <c r="D56" s="8"/>
-      <c r="E56" s="8"/>
-      <c r="F56" s="8"/>
-      <c r="G56" s="8"/>
-      <c r="H56" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I56" s="2"/>
-      <c r="J56" s="10" t="s">
+      <c r="H56" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J56" s="5" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2541,17 +2039,11 @@
       <c r="B57" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C57" s="8"/>
-      <c r="D57" s="8"/>
-      <c r="E57" s="8"/>
-      <c r="F57" s="8"/>
-      <c r="G57" s="8"/>
-      <c r="H57" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I57" s="2"/>
-      <c r="J57" s="10" t="s">
+      <c r="H57" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J57" s="5" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2562,17 +2054,11 @@
       <c r="B58" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C58" s="8"/>
-      <c r="D58" s="8"/>
-      <c r="E58" s="8"/>
-      <c r="F58" s="8"/>
-      <c r="G58" s="8"/>
-      <c r="H58" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I58" s="2"/>
-      <c r="J58" s="10" t="s">
+      <c r="H58" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J58" s="5" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2583,17 +2069,11 @@
       <c r="B59" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C59" s="8"/>
-      <c r="D59" s="8"/>
-      <c r="E59" s="8"/>
-      <c r="F59" s="8"/>
-      <c r="G59" s="8"/>
-      <c r="H59" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I59" s="2"/>
-      <c r="J59" s="10" t="s">
+      <c r="H59" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J59" s="5" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2604,17 +2084,11 @@
       <c r="B60" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C60" s="8"/>
-      <c r="D60" s="8"/>
-      <c r="E60" s="8"/>
-      <c r="F60" s="8"/>
-      <c r="G60" s="8"/>
-      <c r="H60" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I60" s="2"/>
-      <c r="J60" s="10" t="s">
+      <c r="H60" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J60" s="5" t="s">
         <v>73</v>
       </c>
     </row>
@@ -2625,17 +2099,11 @@
       <c r="B61" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C61" s="8"/>
-      <c r="D61" s="8"/>
-      <c r="E61" s="8"/>
-      <c r="F61" s="8"/>
-      <c r="G61" s="8"/>
-      <c r="H61" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I61" s="2"/>
-      <c r="J61" s="10" t="s">
+      <c r="H61" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J61" s="5" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2646,17 +2114,11 @@
       <c r="B62" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C62" s="8"/>
-      <c r="D62" s="8"/>
-      <c r="E62" s="8"/>
-      <c r="F62" s="8"/>
-      <c r="G62" s="8"/>
-      <c r="H62" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I62" s="2"/>
-      <c r="J62" s="10" t="s">
+      <c r="H62" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J62" s="5" t="s">
         <v>75</v>
       </c>
     </row>
@@ -2667,17 +2129,11 @@
       <c r="B63" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C63" s="8"/>
-      <c r="D63" s="8"/>
-      <c r="E63" s="8"/>
-      <c r="F63" s="8"/>
-      <c r="G63" s="8"/>
-      <c r="H63" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I63" s="2"/>
-      <c r="J63" s="10" t="s">
+      <c r="H63" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J63" s="5" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2688,17 +2144,11 @@
       <c r="B64" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C64" s="8"/>
-      <c r="D64" s="8"/>
-      <c r="E64" s="8"/>
-      <c r="F64" s="8"/>
-      <c r="G64" s="8"/>
-      <c r="H64" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I64" s="2"/>
-      <c r="J64" s="10" t="s">
+      <c r="H64" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J64" s="5" t="s">
         <v>77</v>
       </c>
     </row>
@@ -2709,17 +2159,11 @@
       <c r="B65" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C65" s="8"/>
-      <c r="D65" s="8"/>
-      <c r="E65" s="8"/>
-      <c r="F65" s="8"/>
-      <c r="G65" s="8"/>
-      <c r="H65" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I65" s="2"/>
-      <c r="J65" s="10" t="s">
+      <c r="H65" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J65" s="5" t="s">
         <v>78</v>
       </c>
     </row>
@@ -2730,17 +2174,11 @@
       <c r="B66" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C66" s="8"/>
-      <c r="D66" s="8"/>
-      <c r="E66" s="8"/>
-      <c r="F66" s="8"/>
-      <c r="G66" s="8"/>
-      <c r="H66" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I66" s="2"/>
-      <c r="J66" s="10" t="s">
+      <c r="H66" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J66" s="5" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2751,17 +2189,11 @@
       <c r="B67" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C67" s="8"/>
-      <c r="D67" s="8"/>
-      <c r="E67" s="8"/>
-      <c r="F67" s="8"/>
-      <c r="G67" s="8"/>
-      <c r="H67" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I67" s="2"/>
-      <c r="J67" s="10" t="s">
+      <c r="H67" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J67" s="5" t="s">
         <v>80</v>
       </c>
     </row>
@@ -2772,17 +2204,11 @@
       <c r="B68" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C68" s="8"/>
-      <c r="D68" s="8"/>
-      <c r="E68" s="8"/>
-      <c r="F68" s="8"/>
-      <c r="G68" s="8"/>
-      <c r="H68" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I68" s="2"/>
-      <c r="J68" s="10" t="s">
+      <c r="H68" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J68" s="5" t="s">
         <v>81</v>
       </c>
     </row>
@@ -2793,17 +2219,11 @@
       <c r="B69" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C69" s="8"/>
-      <c r="D69" s="8"/>
-      <c r="E69" s="8"/>
-      <c r="F69" s="8"/>
-      <c r="G69" s="8"/>
-      <c r="H69" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I69" s="2"/>
-      <c r="J69" s="10" t="s">
+      <c r="H69" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J69" s="5" t="s">
         <v>82</v>
       </c>
     </row>
@@ -2814,17 +2234,11 @@
       <c r="B70" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C70" s="8"/>
-      <c r="D70" s="8"/>
-      <c r="E70" s="8"/>
-      <c r="F70" s="8"/>
-      <c r="G70" s="8"/>
-      <c r="H70" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I70" s="2"/>
-      <c r="J70" s="10" t="s">
+      <c r="H70" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J70" s="5" t="s">
         <v>83</v>
       </c>
     </row>
@@ -2835,17 +2249,11 @@
       <c r="B71" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C71" s="8"/>
-      <c r="D71" s="8"/>
-      <c r="E71" s="8"/>
-      <c r="F71" s="8"/>
-      <c r="G71" s="8"/>
-      <c r="H71" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I71" s="2"/>
-      <c r="J71" s="10" t="s">
+      <c r="H71" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J71" s="5" t="s">
         <v>84</v>
       </c>
     </row>
@@ -2856,17 +2264,11 @@
       <c r="B72" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C72" s="8"/>
-      <c r="D72" s="8"/>
-      <c r="E72" s="8"/>
-      <c r="F72" s="8"/>
-      <c r="G72" s="8"/>
-      <c r="H72" s="7">
+      <c r="H72" s="3">
         <f t="shared" ref="H72:H106" si="2">SUM(C72:G72)</f>
         <v>0</v>
       </c>
-      <c r="I72" s="2"/>
-      <c r="J72" s="10" t="s">
+      <c r="J72" s="5" t="s">
         <v>85</v>
       </c>
     </row>
@@ -2877,17 +2279,11 @@
       <c r="B73" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C73" s="8"/>
-      <c r="D73" s="8"/>
-      <c r="E73" s="8"/>
-      <c r="F73" s="8"/>
-      <c r="G73" s="8"/>
-      <c r="H73" s="7">
+      <c r="H73" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I73" s="2"/>
-      <c r="J73" s="10" t="s">
+      <c r="J73" s="5" t="s">
         <v>86</v>
       </c>
     </row>
@@ -2898,16 +2294,11 @@
       <c r="B74" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C74" s="8"/>
-      <c r="D74" s="8"/>
-      <c r="E74" s="8"/>
-      <c r="F74" s="8"/>
-      <c r="G74" s="8"/>
-      <c r="H74" s="7">
+      <c r="H74" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J74" s="11" t="s">
+      <c r="J74" s="6" t="s">
         <v>87</v>
       </c>
     </row>
@@ -2918,16 +2309,11 @@
       <c r="B75" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C75" s="8"/>
-      <c r="D75" s="8"/>
-      <c r="E75" s="8"/>
-      <c r="F75" s="8"/>
-      <c r="G75" s="8"/>
-      <c r="H75" s="7">
+      <c r="H75" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J75" s="11" t="s">
+      <c r="J75" s="6" t="s">
         <v>88</v>
       </c>
     </row>
@@ -2938,16 +2324,11 @@
       <c r="B76" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C76" s="8"/>
-      <c r="D76" s="8"/>
-      <c r="E76" s="8"/>
-      <c r="F76" s="8"/>
-      <c r="G76" s="8"/>
-      <c r="H76" s="7">
+      <c r="H76" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J76" s="11" t="s">
+      <c r="J76" s="6" t="s">
         <v>89</v>
       </c>
     </row>
@@ -2958,16 +2339,11 @@
       <c r="B77" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C77" s="8"/>
-      <c r="D77" s="8"/>
-      <c r="E77" s="8"/>
-      <c r="F77" s="8"/>
-      <c r="G77" s="8"/>
-      <c r="H77" s="7">
+      <c r="H77" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J77" s="11" t="s">
+      <c r="J77" s="6" t="s">
         <v>90</v>
       </c>
     </row>
@@ -2978,16 +2354,11 @@
       <c r="B78" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C78" s="8"/>
-      <c r="D78" s="8"/>
-      <c r="E78" s="8"/>
-      <c r="F78" s="8"/>
-      <c r="G78" s="8"/>
-      <c r="H78" s="7">
+      <c r="H78" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J78" s="11" t="s">
+      <c r="J78" s="6" t="s">
         <v>91</v>
       </c>
     </row>
@@ -2998,16 +2369,11 @@
       <c r="B79" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C79" s="8"/>
-      <c r="D79" s="8"/>
-      <c r="E79" s="8"/>
-      <c r="F79" s="8"/>
-      <c r="G79" s="8"/>
-      <c r="H79" s="7">
+      <c r="H79" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J79" s="11" t="s">
+      <c r="J79" s="6" t="s">
         <v>92</v>
       </c>
     </row>
@@ -3018,16 +2384,11 @@
       <c r="B80" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C80" s="8"/>
-      <c r="D80" s="8"/>
-      <c r="E80" s="8"/>
-      <c r="F80" s="8"/>
-      <c r="G80" s="8"/>
-      <c r="H80" s="7">
+      <c r="H80" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J80" s="11" t="s">
+      <c r="J80" s="6" t="s">
         <v>93</v>
       </c>
     </row>
@@ -3038,16 +2399,11 @@
       <c r="B81" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C81" s="8"/>
-      <c r="D81" s="8"/>
-      <c r="E81" s="8"/>
-      <c r="F81" s="8"/>
-      <c r="G81" s="8"/>
-      <c r="H81" s="7">
+      <c r="H81" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J81" s="11" t="s">
+      <c r="J81" s="6" t="s">
         <v>94</v>
       </c>
     </row>
@@ -3058,16 +2414,11 @@
       <c r="B82" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C82" s="8"/>
-      <c r="D82" s="8"/>
-      <c r="E82" s="8"/>
-      <c r="F82" s="8"/>
-      <c r="G82" s="8"/>
-      <c r="H82" s="7">
+      <c r="H82" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J82" s="11" t="s">
+      <c r="J82" s="6" t="s">
         <v>95</v>
       </c>
     </row>
@@ -3078,16 +2429,11 @@
       <c r="B83" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C83" s="8"/>
-      <c r="D83" s="8"/>
-      <c r="E83" s="8"/>
-      <c r="F83" s="8"/>
-      <c r="G83" s="8"/>
-      <c r="H83" s="7">
+      <c r="H83" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J83" s="11" t="s">
+      <c r="J83" s="6" t="s">
         <v>96</v>
       </c>
     </row>
@@ -3098,16 +2444,11 @@
       <c r="B84" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C84" s="8"/>
-      <c r="D84" s="8"/>
-      <c r="E84" s="8"/>
-      <c r="F84" s="8"/>
-      <c r="G84" s="8"/>
-      <c r="H84" s="7">
+      <c r="H84" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J84" s="11" t="s">
+      <c r="J84" s="6" t="s">
         <v>97</v>
       </c>
     </row>
@@ -3118,16 +2459,11 @@
       <c r="B85" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C85" s="8"/>
-      <c r="D85" s="8"/>
-      <c r="E85" s="8"/>
-      <c r="F85" s="8"/>
-      <c r="G85" s="8"/>
-      <c r="H85" s="7">
+      <c r="H85" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J85" s="11" t="s">
+      <c r="J85" s="6" t="s">
         <v>98</v>
       </c>
     </row>
@@ -3138,16 +2474,11 @@
       <c r="B86" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C86" s="8"/>
-      <c r="D86" s="8"/>
-      <c r="E86" s="8"/>
-      <c r="F86" s="8"/>
-      <c r="G86" s="8"/>
-      <c r="H86" s="7">
+      <c r="H86" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J86" s="11" t="s">
+      <c r="J86" s="6" t="s">
         <v>99</v>
       </c>
     </row>
@@ -3158,16 +2489,11 @@
       <c r="B87" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C87" s="8"/>
-      <c r="D87" s="8"/>
-      <c r="E87" s="8"/>
-      <c r="F87" s="8"/>
-      <c r="G87" s="8"/>
-      <c r="H87" s="7">
+      <c r="H87" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J87" s="11" t="s">
+      <c r="J87" s="6" t="s">
         <v>100</v>
       </c>
     </row>
@@ -3178,16 +2504,11 @@
       <c r="B88" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C88" s="8"/>
-      <c r="D88" s="8"/>
-      <c r="E88" s="8"/>
-      <c r="F88" s="8"/>
-      <c r="G88" s="8"/>
-      <c r="H88" s="7">
+      <c r="H88" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J88" s="11" t="s">
+      <c r="J88" s="6" t="s">
         <v>101</v>
       </c>
     </row>
@@ -3198,16 +2519,11 @@
       <c r="B89" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C89" s="8"/>
-      <c r="D89" s="8"/>
-      <c r="E89" s="8"/>
-      <c r="F89" s="8"/>
-      <c r="G89" s="8"/>
-      <c r="H89" s="7">
+      <c r="H89" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J89" s="11" t="s">
+      <c r="J89" s="6" t="s">
         <v>102</v>
       </c>
     </row>
@@ -3218,16 +2534,11 @@
       <c r="B90" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C90" s="8"/>
-      <c r="D90" s="8"/>
-      <c r="E90" s="8"/>
-      <c r="F90" s="8"/>
-      <c r="G90" s="8"/>
-      <c r="H90" s="7">
+      <c r="H90" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J90" s="11" t="s">
+      <c r="J90" s="6" t="s">
         <v>103</v>
       </c>
     </row>
@@ -3238,16 +2549,11 @@
       <c r="B91" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C91" s="8"/>
-      <c r="D91" s="8"/>
-      <c r="E91" s="8"/>
-      <c r="F91" s="8"/>
-      <c r="G91" s="8"/>
-      <c r="H91" s="7">
+      <c r="H91" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J91" s="11" t="s">
+      <c r="J91" s="6" t="s">
         <v>104</v>
       </c>
     </row>
@@ -3258,16 +2564,11 @@
       <c r="B92" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C92" s="8"/>
-      <c r="D92" s="8"/>
-      <c r="E92" s="8"/>
-      <c r="F92" s="8"/>
-      <c r="G92" s="8"/>
-      <c r="H92" s="7">
+      <c r="H92" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J92" s="11" t="s">
+      <c r="J92" s="6" t="s">
         <v>105</v>
       </c>
     </row>
@@ -3278,16 +2579,11 @@
       <c r="B93" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C93" s="8"/>
-      <c r="D93" s="8"/>
-      <c r="E93" s="8"/>
-      <c r="F93" s="8"/>
-      <c r="G93" s="8"/>
-      <c r="H93" s="7">
+      <c r="H93" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J93" s="11" t="s">
+      <c r="J93" s="6" t="s">
         <v>106</v>
       </c>
     </row>
@@ -3298,16 +2594,11 @@
       <c r="B94" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C94" s="8"/>
-      <c r="D94" s="8"/>
-      <c r="E94" s="8"/>
-      <c r="F94" s="8"/>
-      <c r="G94" s="8"/>
-      <c r="H94" s="7">
+      <c r="H94" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J94" s="11" t="s">
+      <c r="J94" s="6" t="s">
         <v>107</v>
       </c>
     </row>
@@ -3318,16 +2609,11 @@
       <c r="B95" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C95" s="8"/>
-      <c r="D95" s="8"/>
-      <c r="E95" s="8"/>
-      <c r="F95" s="8"/>
-      <c r="G95" s="8"/>
-      <c r="H95" s="7">
+      <c r="H95" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J95" s="11" t="s">
+      <c r="J95" s="6" t="s">
         <v>108</v>
       </c>
     </row>
@@ -3338,16 +2624,11 @@
       <c r="B96" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C96" s="8"/>
-      <c r="D96" s="8"/>
-      <c r="E96" s="8"/>
-      <c r="F96" s="8"/>
-      <c r="G96" s="8"/>
-      <c r="H96" s="7">
+      <c r="H96" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J96" s="11" t="s">
+      <c r="J96" s="6" t="s">
         <v>109</v>
       </c>
     </row>
@@ -3358,16 +2639,11 @@
       <c r="B97" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C97" s="8"/>
-      <c r="D97" s="8"/>
-      <c r="E97" s="8"/>
-      <c r="F97" s="8"/>
-      <c r="G97" s="8"/>
-      <c r="H97" s="7">
+      <c r="H97" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J97" s="11" t="s">
+      <c r="J97" s="6" t="s">
         <v>110</v>
       </c>
     </row>
@@ -3378,16 +2654,11 @@
       <c r="B98" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C98" s="8"/>
-      <c r="D98" s="8"/>
-      <c r="E98" s="8"/>
-      <c r="F98" s="8"/>
-      <c r="G98" s="8"/>
-      <c r="H98" s="7">
+      <c r="H98" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J98" s="11" t="s">
+      <c r="J98" s="6" t="s">
         <v>111</v>
       </c>
     </row>
@@ -3398,16 +2669,11 @@
       <c r="B99" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C99" s="8"/>
-      <c r="D99" s="8"/>
-      <c r="E99" s="8"/>
-      <c r="F99" s="8"/>
-      <c r="G99" s="8"/>
-      <c r="H99" s="7">
+      <c r="H99" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J99" s="11" t="s">
+      <c r="J99" s="6" t="s">
         <v>112</v>
       </c>
     </row>
@@ -3418,16 +2684,11 @@
       <c r="B100" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C100" s="8"/>
-      <c r="D100" s="8"/>
-      <c r="E100" s="8"/>
-      <c r="F100" s="8"/>
-      <c r="G100" s="8"/>
-      <c r="H100" s="7">
+      <c r="H100" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J100" s="11" t="s">
+      <c r="J100" s="6" t="s">
         <v>113</v>
       </c>
     </row>
@@ -3438,16 +2699,11 @@
       <c r="B101" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C101" s="8"/>
-      <c r="D101" s="8"/>
-      <c r="E101" s="8"/>
-      <c r="F101" s="8"/>
-      <c r="G101" s="8"/>
-      <c r="H101" s="7">
+      <c r="H101" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J101" s="11" t="s">
+      <c r="J101" s="6" t="s">
         <v>114</v>
       </c>
     </row>
@@ -3458,16 +2714,11 @@
       <c r="B102" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C102" s="8"/>
-      <c r="D102" s="8"/>
-      <c r="E102" s="8"/>
-      <c r="F102" s="8"/>
-      <c r="G102" s="8"/>
-      <c r="H102" s="7">
+      <c r="H102" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J102" s="11" t="s">
+      <c r="J102" s="6" t="s">
         <v>115</v>
       </c>
     </row>
@@ -3478,16 +2729,11 @@
       <c r="B103" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C103" s="8"/>
-      <c r="D103" s="8"/>
-      <c r="E103" s="8"/>
-      <c r="F103" s="8"/>
-      <c r="G103" s="8"/>
-      <c r="H103" s="7">
+      <c r="H103" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J103" s="11" t="s">
+      <c r="J103" s="6" t="s">
         <v>116</v>
       </c>
     </row>
@@ -3498,16 +2744,11 @@
       <c r="B104" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C104" s="8"/>
-      <c r="D104" s="8"/>
-      <c r="E104" s="8"/>
-      <c r="F104" s="8"/>
-      <c r="G104" s="8"/>
-      <c r="H104" s="7">
+      <c r="H104" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J104" s="11" t="s">
+      <c r="J104" s="6" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3518,16 +2759,11 @@
       <c r="B105" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C105" s="8"/>
-      <c r="D105" s="8"/>
-      <c r="E105" s="8"/>
-      <c r="F105" s="8"/>
-      <c r="G105" s="8"/>
-      <c r="H105" s="7">
+      <c r="H105" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J105" s="11" t="s">
+      <c r="J105" s="6" t="s">
         <v>118</v>
       </c>
     </row>
@@ -3538,16 +2774,11 @@
       <c r="B106" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C106" s="8"/>
-      <c r="D106" s="8"/>
-      <c r="E106" s="8"/>
-      <c r="F106" s="8"/>
-      <c r="G106" s="8"/>
-      <c r="H106" s="7">
+      <c r="H106" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J106" s="11" t="s">
+      <c r="J106" s="6" t="s">
         <v>119</v>
       </c>
     </row>
@@ -3558,16 +2789,11 @@
       <c r="B107" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C107" s="8"/>
-      <c r="D107" s="8"/>
-      <c r="E107" s="8"/>
-      <c r="F107" s="8"/>
-      <c r="G107" s="8"/>
-      <c r="H107" s="7">
+      <c r="H107" s="3">
         <f t="shared" ref="H107" si="3">SUM(C107:G107)</f>
         <v>0</v>
       </c>
-      <c r="J107" s="11" t="s">
+      <c r="J107" s="6" t="s">
         <v>120</v>
       </c>
     </row>
@@ -3578,16 +2804,11 @@
       <c r="B108" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C108" s="8"/>
-      <c r="D108" s="8"/>
-      <c r="E108" s="8"/>
-      <c r="F108" s="8"/>
-      <c r="G108" s="8"/>
-      <c r="H108" s="7">
+      <c r="H108" s="3">
         <f t="shared" ref="H108" si="4">SUM(C108:G108)</f>
         <v>0</v>
       </c>
-      <c r="J108" s="11" t="s">
+      <c r="J108" s="6" t="s">
         <v>121</v>
       </c>
     </row>
@@ -3598,16 +2819,11 @@
       <c r="B109" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C109" s="8"/>
-      <c r="D109" s="8"/>
-      <c r="E109" s="8"/>
-      <c r="F109" s="8"/>
-      <c r="G109" s="8"/>
-      <c r="H109" s="7">
+      <c r="H109" s="3">
         <f t="shared" ref="H109" si="5">SUM(C109:G109)</f>
         <v>0</v>
       </c>
-      <c r="J109" s="11" t="s">
+      <c r="J109" s="6" t="s">
         <v>122</v>
       </c>
     </row>
@@ -3618,16 +2834,11 @@
       <c r="B110" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C110" s="8"/>
-      <c r="D110" s="8"/>
-      <c r="E110" s="8"/>
-      <c r="F110" s="8"/>
-      <c r="G110" s="8"/>
-      <c r="H110" s="7">
+      <c r="H110" s="3">
         <f t="shared" ref="H110" si="6">SUM(C110:G110)</f>
         <v>0</v>
       </c>
-      <c r="J110" s="11" t="s">
+      <c r="J110" s="6" t="s">
         <v>123</v>
       </c>
     </row>
@@ -3638,16 +2849,11 @@
       <c r="B111" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C111" s="8"/>
-      <c r="D111" s="8"/>
-      <c r="E111" s="8"/>
-      <c r="F111" s="8"/>
-      <c r="G111" s="8"/>
-      <c r="H111" s="7">
+      <c r="H111" s="3">
         <f t="shared" ref="H111" si="7">SUM(C111:G111)</f>
         <v>0</v>
       </c>
-      <c r="J111" s="11" t="s">
+      <c r="J111" s="6" t="s">
         <v>124</v>
       </c>
     </row>
@@ -3658,16 +2864,11 @@
       <c r="B112" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C112" s="8"/>
-      <c r="D112" s="8"/>
-      <c r="E112" s="8"/>
-      <c r="F112" s="8"/>
-      <c r="G112" s="8"/>
-      <c r="H112" s="7">
+      <c r="H112" s="3">
         <f t="shared" ref="H112" si="8">SUM(C112:G112)</f>
         <v>0</v>
       </c>
-      <c r="J112" s="11" t="s">
+      <c r="J112" s="6" t="s">
         <v>125</v>
       </c>
     </row>
@@ -3678,16 +2879,11 @@
       <c r="B113" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C113" s="8"/>
-      <c r="D113" s="8"/>
-      <c r="E113" s="8"/>
-      <c r="F113" s="8"/>
-      <c r="G113" s="8"/>
-      <c r="H113" s="7">
+      <c r="H113" s="3">
         <f t="shared" ref="H113" si="9">SUM(C113:G113)</f>
         <v>0</v>
       </c>
-      <c r="J113" s="11" t="s">
+      <c r="J113" s="6" t="s">
         <v>126</v>
       </c>
     </row>
@@ -3698,16 +2894,11 @@
       <c r="B114" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C114" s="8"/>
-      <c r="D114" s="8"/>
-      <c r="E114" s="8"/>
-      <c r="F114" s="8"/>
-      <c r="G114" s="8"/>
-      <c r="H114" s="7">
+      <c r="H114" s="3">
         <f t="shared" ref="H114" si="10">SUM(C114:G114)</f>
         <v>0</v>
       </c>
-      <c r="J114" s="11" t="s">
+      <c r="J114" s="6" t="s">
         <v>127</v>
       </c>
     </row>
@@ -3718,16 +2909,11 @@
       <c r="B115" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C115" s="8"/>
-      <c r="D115" s="8"/>
-      <c r="E115" s="8"/>
-      <c r="F115" s="8"/>
-      <c r="G115" s="8"/>
-      <c r="H115" s="7">
+      <c r="H115" s="3">
         <f t="shared" ref="H115" si="11">SUM(C115:G115)</f>
         <v>0</v>
       </c>
-      <c r="J115" s="11" t="s">
+      <c r="J115" s="6" t="s">
         <v>128</v>
       </c>
     </row>
@@ -3738,16 +2924,11 @@
       <c r="B116" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C116" s="8"/>
-      <c r="D116" s="8"/>
-      <c r="E116" s="8"/>
-      <c r="F116" s="8"/>
-      <c r="G116" s="8"/>
-      <c r="H116" s="7">
+      <c r="H116" s="3">
         <f t="shared" ref="H116" si="12">SUM(C116:G116)</f>
         <v>0</v>
       </c>
-      <c r="J116" s="11" t="s">
+      <c r="J116" s="6" t="s">
         <v>129</v>
       </c>
     </row>
@@ -3758,16 +2939,11 @@
       <c r="B117" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C117" s="8"/>
-      <c r="D117" s="8"/>
-      <c r="E117" s="8"/>
-      <c r="F117" s="8"/>
-      <c r="G117" s="8"/>
-      <c r="H117" s="7">
+      <c r="H117" s="3">
         <f t="shared" ref="H117" si="13">SUM(C117:G117)</f>
         <v>0</v>
       </c>
-      <c r="J117" s="11" t="s">
+      <c r="J117" s="6" t="s">
         <v>130</v>
       </c>
     </row>
@@ -3778,16 +2954,11 @@
       <c r="B118" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C118" s="8"/>
-      <c r="D118" s="8"/>
-      <c r="E118" s="8"/>
-      <c r="F118" s="8"/>
-      <c r="G118" s="8"/>
-      <c r="H118" s="7">
+      <c r="H118" s="3">
         <f t="shared" ref="H118" si="14">SUM(C118:G118)</f>
         <v>0</v>
       </c>
-      <c r="J118" s="11" t="s">
+      <c r="J118" s="6" t="s">
         <v>131</v>
       </c>
     </row>
@@ -3798,16 +2969,11 @@
       <c r="B119" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C119" s="8"/>
-      <c r="D119" s="8"/>
-      <c r="E119" s="8"/>
-      <c r="F119" s="8"/>
-      <c r="G119" s="8"/>
-      <c r="H119" s="7">
+      <c r="H119" s="3">
         <f t="shared" ref="H119" si="15">SUM(C119:G119)</f>
         <v>0</v>
       </c>
-      <c r="J119" s="11" t="s">
+      <c r="J119" s="6" t="s">
         <v>132</v>
       </c>
     </row>
@@ -3818,16 +2984,11 @@
       <c r="B120" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C120" s="8"/>
-      <c r="D120" s="8"/>
-      <c r="E120" s="8"/>
-      <c r="F120" s="8"/>
-      <c r="G120" s="8"/>
-      <c r="H120" s="7">
+      <c r="H120" s="3">
         <f t="shared" ref="H120" si="16">SUM(C120:G120)</f>
         <v>0</v>
       </c>
-      <c r="J120" s="11" t="s">
+      <c r="J120" s="6" t="s">
         <v>133</v>
       </c>
     </row>
@@ -3838,16 +2999,11 @@
       <c r="B121" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C121" s="8"/>
-      <c r="D121" s="8"/>
-      <c r="E121" s="8"/>
-      <c r="F121" s="8"/>
-      <c r="G121" s="8"/>
-      <c r="H121" s="7">
+      <c r="H121" s="3">
         <f t="shared" ref="H121" si="17">SUM(C121:G121)</f>
         <v>0</v>
       </c>
-      <c r="J121" s="11" t="s">
+      <c r="J121" s="6" t="s">
         <v>134</v>
       </c>
     </row>
@@ -3858,16 +3014,11 @@
       <c r="B122" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C122" s="8"/>
-      <c r="D122" s="8"/>
-      <c r="E122" s="8"/>
-      <c r="F122" s="8"/>
-      <c r="G122" s="8"/>
-      <c r="H122" s="7">
+      <c r="H122" s="3">
         <f t="shared" ref="H122" si="18">SUM(C122:G122)</f>
         <v>0</v>
       </c>
-      <c r="J122" s="11" t="s">
+      <c r="J122" s="6" t="s">
         <v>135</v>
       </c>
     </row>
@@ -3878,16 +3029,11 @@
       <c r="B123" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C123" s="8"/>
-      <c r="D123" s="8"/>
-      <c r="E123" s="8"/>
-      <c r="F123" s="8"/>
-      <c r="G123" s="8"/>
-      <c r="H123" s="7">
+      <c r="H123" s="3">
         <f t="shared" ref="H123" si="19">SUM(C123:G123)</f>
         <v>0</v>
       </c>
-      <c r="J123" s="11" t="s">
+      <c r="J123" s="6" t="s">
         <v>136</v>
       </c>
     </row>
@@ -3898,16 +3044,11 @@
       <c r="B124" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C124" s="8"/>
-      <c r="D124" s="8"/>
-      <c r="E124" s="8"/>
-      <c r="F124" s="8"/>
-      <c r="G124" s="8"/>
-      <c r="H124" s="7">
+      <c r="H124" s="3">
         <f t="shared" ref="H124" si="20">SUM(C124:G124)</f>
         <v>0</v>
       </c>
-      <c r="J124" s="11" t="s">
+      <c r="J124" s="6" t="s">
         <v>137</v>
       </c>
     </row>
@@ -3918,16 +3059,11 @@
       <c r="B125" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C125" s="8"/>
-      <c r="D125" s="8"/>
-      <c r="E125" s="8"/>
-      <c r="F125" s="8"/>
-      <c r="G125" s="8"/>
-      <c r="H125" s="7">
+      <c r="H125" s="3">
         <f t="shared" ref="H125" si="21">SUM(C125:G125)</f>
         <v>0</v>
       </c>
-      <c r="J125" s="11" t="s">
+      <c r="J125" s="6" t="s">
         <v>138</v>
       </c>
     </row>
@@ -3938,16 +3074,11 @@
       <c r="B126" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C126" s="8"/>
-      <c r="D126" s="8"/>
-      <c r="E126" s="8"/>
-      <c r="F126" s="8"/>
-      <c r="G126" s="8"/>
-      <c r="H126" s="7">
+      <c r="H126" s="3">
         <f t="shared" ref="H126" si="22">SUM(C126:G126)</f>
         <v>0</v>
       </c>
-      <c r="J126" s="11" t="s">
+      <c r="J126" s="6" t="s">
         <v>139</v>
       </c>
     </row>
@@ -3958,16 +3089,11 @@
       <c r="B127" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C127" s="8"/>
-      <c r="D127" s="8"/>
-      <c r="E127" s="8"/>
-      <c r="F127" s="8"/>
-      <c r="G127" s="8"/>
-      <c r="H127" s="7">
+      <c r="H127" s="3">
         <f t="shared" ref="H127" si="23">SUM(C127:G127)</f>
         <v>0</v>
       </c>
-      <c r="J127" s="11" t="s">
+      <c r="J127" s="6" t="s">
         <v>140</v>
       </c>
     </row>
@@ -3978,16 +3104,11 @@
       <c r="B128" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C128" s="8"/>
-      <c r="D128" s="8"/>
-      <c r="E128" s="8"/>
-      <c r="F128" s="8"/>
-      <c r="G128" s="8"/>
-      <c r="H128" s="7">
+      <c r="H128" s="3">
         <f t="shared" ref="H128" si="24">SUM(C128:G128)</f>
         <v>0</v>
       </c>
-      <c r="J128" s="11" t="s">
+      <c r="J128" s="6" t="s">
         <v>141</v>
       </c>
     </row>
@@ -3998,16 +3119,11 @@
       <c r="B129" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C129" s="8"/>
-      <c r="D129" s="8"/>
-      <c r="E129" s="8"/>
-      <c r="F129" s="8"/>
-      <c r="G129" s="8"/>
-      <c r="H129" s="7">
+      <c r="H129" s="3">
         <f t="shared" ref="H129" si="25">SUM(C129:G129)</f>
         <v>0</v>
       </c>
-      <c r="J129" s="11" t="s">
+      <c r="J129" s="6" t="s">
         <v>142</v>
       </c>
     </row>
@@ -4018,16 +3134,11 @@
       <c r="B130" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C130" s="8"/>
-      <c r="D130" s="8"/>
-      <c r="E130" s="8"/>
-      <c r="F130" s="8"/>
-      <c r="G130" s="8"/>
-      <c r="H130" s="7">
+      <c r="H130" s="3">
         <f t="shared" ref="H130" si="26">SUM(C130:G130)</f>
         <v>0</v>
       </c>
-      <c r="J130" s="11" t="s">
+      <c r="J130" s="6" t="s">
         <v>143</v>
       </c>
     </row>
@@ -4038,16 +3149,11 @@
       <c r="B131" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C131" s="8"/>
-      <c r="D131" s="8"/>
-      <c r="E131" s="8"/>
-      <c r="F131" s="8"/>
-      <c r="G131" s="8"/>
-      <c r="H131" s="7">
+      <c r="H131" s="3">
         <f t="shared" ref="H131" si="27">SUM(C131:G131)</f>
         <v>0</v>
       </c>
-      <c r="J131" s="11" t="s">
+      <c r="J131" s="6" t="s">
         <v>144</v>
       </c>
     </row>
@@ -4058,16 +3164,11 @@
       <c r="B132" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C132" s="8"/>
-      <c r="D132" s="8"/>
-      <c r="E132" s="8"/>
-      <c r="F132" s="8"/>
-      <c r="G132" s="8"/>
-      <c r="H132" s="7">
+      <c r="H132" s="3">
         <f t="shared" ref="H132" si="28">SUM(C132:G132)</f>
         <v>0</v>
       </c>
-      <c r="J132" s="11" t="s">
+      <c r="J132" s="6" t="s">
         <v>145</v>
       </c>
     </row>
@@ -4078,16 +3179,11 @@
       <c r="B133" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C133" s="8"/>
-      <c r="D133" s="8"/>
-      <c r="E133" s="8"/>
-      <c r="F133" s="8"/>
-      <c r="G133" s="8"/>
-      <c r="H133" s="7">
+      <c r="H133" s="3">
         <f t="shared" ref="H133" si="29">SUM(C133:G133)</f>
         <v>0</v>
       </c>
-      <c r="J133" s="11" t="s">
+      <c r="J133" s="6" t="s">
         <v>146</v>
       </c>
     </row>
@@ -4098,16 +3194,11 @@
       <c r="B134" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C134" s="8"/>
-      <c r="D134" s="8"/>
-      <c r="E134" s="8"/>
-      <c r="F134" s="8"/>
-      <c r="G134" s="8"/>
-      <c r="H134" s="7">
+      <c r="H134" s="3">
         <f t="shared" ref="H134" si="30">SUM(C134:G134)</f>
         <v>0</v>
       </c>
-      <c r="J134" s="11" t="s">
+      <c r="J134" s="6" t="s">
         <v>147</v>
       </c>
     </row>
@@ -4118,16 +3209,11 @@
       <c r="B135" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C135" s="8"/>
-      <c r="D135" s="8"/>
-      <c r="E135" s="8"/>
-      <c r="F135" s="8"/>
-      <c r="G135" s="8"/>
-      <c r="H135" s="7">
+      <c r="H135" s="3">
         <f t="shared" ref="H135" si="31">SUM(C135:G135)</f>
         <v>0</v>
       </c>
-      <c r="J135" s="11" t="s">
+      <c r="J135" s="6" t="s">
         <v>148</v>
       </c>
     </row>
@@ -4138,16 +3224,11 @@
       <c r="B136" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C136" s="8"/>
-      <c r="D136" s="8"/>
-      <c r="E136" s="8"/>
-      <c r="F136" s="8"/>
-      <c r="G136" s="8"/>
-      <c r="H136" s="7">
+      <c r="H136" s="3">
         <f t="shared" ref="H136" si="32">SUM(C136:G136)</f>
         <v>0</v>
       </c>
-      <c r="J136" s="11" t="s">
+      <c r="J136" s="6" t="s">
         <v>149</v>
       </c>
     </row>
@@ -4158,16 +3239,11 @@
       <c r="B137" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C137" s="8"/>
-      <c r="D137" s="8"/>
-      <c r="E137" s="8"/>
-      <c r="F137" s="8"/>
-      <c r="G137" s="8"/>
-      <c r="H137" s="7">
+      <c r="H137" s="3">
         <f t="shared" ref="H137" si="33">SUM(C137:G137)</f>
         <v>0</v>
       </c>
-      <c r="J137" s="11" t="s">
+      <c r="J137" s="6" t="s">
         <v>150</v>
       </c>
     </row>
@@ -4178,16 +3254,11 @@
       <c r="B138" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C138" s="8"/>
-      <c r="D138" s="8"/>
-      <c r="E138" s="8"/>
-      <c r="F138" s="8"/>
-      <c r="G138" s="8"/>
-      <c r="H138" s="7">
+      <c r="H138" s="3">
         <f t="shared" ref="H138:H172" si="34">SUM(C138:G138)</f>
         <v>0</v>
       </c>
-      <c r="J138" s="11" t="s">
+      <c r="J138" s="6" t="s">
         <v>163</v>
       </c>
     </row>
@@ -4198,16 +3269,11 @@
       <c r="B139" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C139" s="8"/>
-      <c r="D139" s="8"/>
-      <c r="E139" s="8"/>
-      <c r="F139" s="8"/>
-      <c r="G139" s="8"/>
-      <c r="H139" s="7">
+      <c r="H139" s="3">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="J139" s="11" t="s">
+      <c r="J139" s="6" t="s">
         <v>164</v>
       </c>
     </row>
@@ -4218,16 +3284,11 @@
       <c r="B140" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C140" s="8"/>
-      <c r="D140" s="8"/>
-      <c r="E140" s="8"/>
-      <c r="F140" s="8"/>
-      <c r="G140" s="8"/>
-      <c r="H140" s="7">
+      <c r="H140" s="3">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="J140" s="11" t="s">
+      <c r="J140" s="6" t="s">
         <v>165</v>
       </c>
     </row>
@@ -4238,16 +3299,11 @@
       <c r="B141" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C141" s="8"/>
-      <c r="D141" s="8"/>
-      <c r="E141" s="8"/>
-      <c r="F141" s="8"/>
-      <c r="G141" s="8"/>
-      <c r="H141" s="7">
+      <c r="H141" s="3">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="J141" s="11" t="s">
+      <c r="J141" s="6" t="s">
         <v>166</v>
       </c>
     </row>
@@ -4258,16 +3314,11 @@
       <c r="B142" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C142" s="8"/>
-      <c r="D142" s="8"/>
-      <c r="E142" s="8"/>
-      <c r="F142" s="8"/>
-      <c r="G142" s="8"/>
-      <c r="H142" s="7">
+      <c r="H142" s="3">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="J142" s="11" t="s">
+      <c r="J142" s="6" t="s">
         <v>167</v>
       </c>
     </row>
@@ -4278,16 +3329,11 @@
       <c r="B143" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C143" s="8"/>
-      <c r="D143" s="8"/>
-      <c r="E143" s="8"/>
-      <c r="F143" s="8"/>
-      <c r="G143" s="8"/>
-      <c r="H143" s="7">
+      <c r="H143" s="3">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="J143" s="11" t="s">
+      <c r="J143" s="6" t="s">
         <v>168</v>
       </c>
     </row>
@@ -4298,16 +3344,11 @@
       <c r="B144" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C144" s="8"/>
-      <c r="D144" s="8"/>
-      <c r="E144" s="8"/>
-      <c r="F144" s="8"/>
-      <c r="G144" s="8"/>
-      <c r="H144" s="7">
+      <c r="H144" s="3">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="J144" s="11" t="s">
+      <c r="J144" s="6" t="s">
         <v>169</v>
       </c>
     </row>
@@ -4318,16 +3359,11 @@
       <c r="B145" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C145" s="8"/>
-      <c r="D145" s="8"/>
-      <c r="E145" s="8"/>
-      <c r="F145" s="8"/>
-      <c r="G145" s="8"/>
-      <c r="H145" s="7">
+      <c r="H145" s="3">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="J145" s="11" t="s">
+      <c r="J145" s="6" t="s">
         <v>170</v>
       </c>
     </row>
@@ -4338,16 +3374,11 @@
       <c r="B146" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C146" s="8"/>
-      <c r="D146" s="8"/>
-      <c r="E146" s="8"/>
-      <c r="F146" s="8"/>
-      <c r="G146" s="8"/>
-      <c r="H146" s="7">
+      <c r="H146" s="3">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="J146" s="11" t="s">
+      <c r="J146" s="6" t="s">
         <v>171</v>
       </c>
     </row>
@@ -4358,16 +3389,11 @@
       <c r="B147" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C147" s="8"/>
-      <c r="D147" s="8"/>
-      <c r="E147" s="8"/>
-      <c r="F147" s="8"/>
-      <c r="G147" s="8"/>
-      <c r="H147" s="7">
+      <c r="H147" s="3">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="J147" s="11" t="s">
+      <c r="J147" s="6" t="s">
         <v>172</v>
       </c>
     </row>
@@ -4378,16 +3404,11 @@
       <c r="B148" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C148" s="8"/>
-      <c r="D148" s="8"/>
-      <c r="E148" s="8"/>
-      <c r="F148" s="8"/>
-      <c r="G148" s="8"/>
-      <c r="H148" s="7">
+      <c r="H148" s="3">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="J148" s="11" t="s">
+      <c r="J148" s="6" t="s">
         <v>173</v>
       </c>
     </row>
@@ -4398,16 +3419,11 @@
       <c r="B149" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C149" s="8"/>
-      <c r="D149" s="8"/>
-      <c r="E149" s="8"/>
-      <c r="F149" s="8"/>
-      <c r="G149" s="8"/>
-      <c r="H149" s="7">
+      <c r="H149" s="3">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="J149" s="11" t="s">
+      <c r="J149" s="6" t="s">
         <v>174</v>
       </c>
     </row>
@@ -4418,16 +3434,11 @@
       <c r="B150" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C150" s="8"/>
-      <c r="D150" s="8"/>
-      <c r="E150" s="8"/>
-      <c r="F150" s="8"/>
-      <c r="G150" s="8"/>
-      <c r="H150" s="7">
+      <c r="H150" s="3">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="J150" s="11" t="s">
+      <c r="J150" s="6" t="s">
         <v>175</v>
       </c>
     </row>
@@ -4438,16 +3449,11 @@
       <c r="B151" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C151" s="8"/>
-      <c r="D151" s="8"/>
-      <c r="E151" s="8"/>
-      <c r="F151" s="8"/>
-      <c r="G151" s="8"/>
-      <c r="H151" s="7">
+      <c r="H151" s="3">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="J151" s="11" t="s">
+      <c r="J151" s="6" t="s">
         <v>176</v>
       </c>
     </row>
@@ -4458,16 +3464,11 @@
       <c r="B152" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C152" s="8"/>
-      <c r="D152" s="8"/>
-      <c r="E152" s="8"/>
-      <c r="F152" s="8"/>
-      <c r="G152" s="8"/>
-      <c r="H152" s="7">
+      <c r="H152" s="3">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="J152" s="11" t="s">
+      <c r="J152" s="6" t="s">
         <v>177</v>
       </c>
     </row>
@@ -4478,16 +3479,11 @@
       <c r="B153" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C153" s="8"/>
-      <c r="D153" s="8"/>
-      <c r="E153" s="8"/>
-      <c r="F153" s="8"/>
-      <c r="G153" s="8"/>
-      <c r="H153" s="7">
+      <c r="H153" s="3">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="J153" s="11" t="s">
+      <c r="J153" s="6" t="s">
         <v>178</v>
       </c>
     </row>
@@ -4498,16 +3494,11 @@
       <c r="B154" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C154" s="8"/>
-      <c r="D154" s="8"/>
-      <c r="E154" s="8"/>
-      <c r="F154" s="8"/>
-      <c r="G154" s="8"/>
-      <c r="H154" s="7">
+      <c r="H154" s="3">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="J154" s="11" t="s">
+      <c r="J154" s="6" t="s">
         <v>179</v>
       </c>
     </row>
@@ -4518,16 +3509,11 @@
       <c r="B155" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C155" s="8"/>
-      <c r="D155" s="8"/>
-      <c r="E155" s="8"/>
-      <c r="F155" s="8"/>
-      <c r="G155" s="8"/>
-      <c r="H155" s="7">
+      <c r="H155" s="3">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="J155" s="11" t="s">
+      <c r="J155" s="6" t="s">
         <v>180</v>
       </c>
     </row>
@@ -4538,16 +3524,11 @@
       <c r="B156" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C156" s="8"/>
-      <c r="D156" s="8"/>
-      <c r="E156" s="8"/>
-      <c r="F156" s="8"/>
-      <c r="G156" s="8"/>
-      <c r="H156" s="7">
+      <c r="H156" s="3">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="J156" s="11" t="s">
+      <c r="J156" s="6" t="s">
         <v>181</v>
       </c>
     </row>
@@ -4558,16 +3539,11 @@
       <c r="B157" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C157" s="8"/>
-      <c r="D157" s="8"/>
-      <c r="E157" s="8"/>
-      <c r="F157" s="8"/>
-      <c r="G157" s="8"/>
-      <c r="H157" s="7">
+      <c r="H157" s="3">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="J157" s="11" t="s">
+      <c r="J157" s="6" t="s">
         <v>182</v>
       </c>
     </row>
@@ -4578,16 +3554,11 @@
       <c r="B158" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C158" s="8"/>
-      <c r="D158" s="8"/>
-      <c r="E158" s="8"/>
-      <c r="F158" s="8"/>
-      <c r="G158" s="8"/>
-      <c r="H158" s="7">
+      <c r="H158" s="3">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="J158" s="11" t="s">
+      <c r="J158" s="6" t="s">
         <v>183</v>
       </c>
     </row>
@@ -4598,16 +3569,11 @@
       <c r="B159" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C159" s="8"/>
-      <c r="D159" s="8"/>
-      <c r="E159" s="8"/>
-      <c r="F159" s="8"/>
-      <c r="G159" s="8"/>
-      <c r="H159" s="7">
+      <c r="H159" s="3">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="J159" s="11" t="s">
+      <c r="J159" s="6" t="s">
         <v>184</v>
       </c>
     </row>
@@ -4618,16 +3584,11 @@
       <c r="B160" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C160" s="8"/>
-      <c r="D160" s="8"/>
-      <c r="E160" s="8"/>
-      <c r="F160" s="8"/>
-      <c r="G160" s="8"/>
-      <c r="H160" s="7">
+      <c r="H160" s="3">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="J160" s="11" t="s">
+      <c r="J160" s="6" t="s">
         <v>185</v>
       </c>
     </row>
@@ -4638,16 +3599,11 @@
       <c r="B161" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C161" s="8"/>
-      <c r="D161" s="8"/>
-      <c r="E161" s="8"/>
-      <c r="F161" s="8"/>
-      <c r="G161" s="8"/>
-      <c r="H161" s="7">
+      <c r="H161" s="3">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="J161" s="11" t="s">
+      <c r="J161" s="6" t="s">
         <v>186</v>
       </c>
     </row>
@@ -4658,16 +3614,11 @@
       <c r="B162" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C162" s="8"/>
-      <c r="D162" s="8"/>
-      <c r="E162" s="8"/>
-      <c r="F162" s="8"/>
-      <c r="G162" s="8"/>
-      <c r="H162" s="7">
+      <c r="H162" s="3">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="J162" s="11" t="s">
+      <c r="J162" s="6" t="s">
         <v>187</v>
       </c>
     </row>
@@ -4678,16 +3629,11 @@
       <c r="B163" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C163" s="8"/>
-      <c r="D163" s="8"/>
-      <c r="E163" s="8"/>
-      <c r="F163" s="8"/>
-      <c r="G163" s="8"/>
-      <c r="H163" s="7">
+      <c r="H163" s="3">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="J163" s="11" t="s">
+      <c r="J163" s="6" t="s">
         <v>188</v>
       </c>
     </row>
@@ -4698,16 +3644,11 @@
       <c r="B164" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C164" s="8"/>
-      <c r="D164" s="8"/>
-      <c r="E164" s="8"/>
-      <c r="F164" s="8"/>
-      <c r="G164" s="8"/>
-      <c r="H164" s="7">
+      <c r="H164" s="3">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="J164" s="11" t="s">
+      <c r="J164" s="6" t="s">
         <v>189</v>
       </c>
     </row>
@@ -4718,16 +3659,11 @@
       <c r="B165" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C165" s="8"/>
-      <c r="D165" s="8"/>
-      <c r="E165" s="8"/>
-      <c r="F165" s="8"/>
-      <c r="G165" s="8"/>
-      <c r="H165" s="7">
+      <c r="H165" s="3">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="J165" s="11" t="s">
+      <c r="J165" s="6" t="s">
         <v>190</v>
       </c>
     </row>
@@ -4738,16 +3674,11 @@
       <c r="B166" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C166" s="8"/>
-      <c r="D166" s="8"/>
-      <c r="E166" s="8"/>
-      <c r="F166" s="8"/>
-      <c r="G166" s="8"/>
-      <c r="H166" s="7">
+      <c r="H166" s="3">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="J166" s="11" t="s">
+      <c r="J166" s="6" t="s">
         <v>191</v>
       </c>
     </row>
@@ -4758,16 +3689,11 @@
       <c r="B167" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C167" s="8"/>
-      <c r="D167" s="8"/>
-      <c r="E167" s="8"/>
-      <c r="F167" s="8"/>
-      <c r="G167" s="8"/>
-      <c r="H167" s="7">
+      <c r="H167" s="3">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="J167" s="11" t="s">
+      <c r="J167" s="6" t="s">
         <v>192</v>
       </c>
     </row>
@@ -4778,16 +3704,11 @@
       <c r="B168" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C168" s="8"/>
-      <c r="D168" s="8"/>
-      <c r="E168" s="8"/>
-      <c r="F168" s="8"/>
-      <c r="G168" s="8"/>
-      <c r="H168" s="7">
+      <c r="H168" s="3">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="J168" s="11" t="s">
+      <c r="J168" s="6" t="s">
         <v>193</v>
       </c>
     </row>
@@ -4798,16 +3719,11 @@
       <c r="B169" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C169" s="8"/>
-      <c r="D169" s="8"/>
-      <c r="E169" s="8"/>
-      <c r="F169" s="8"/>
-      <c r="G169" s="8"/>
-      <c r="H169" s="7">
+      <c r="H169" s="3">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="J169" s="11" t="s">
+      <c r="J169" s="6" t="s">
         <v>194</v>
       </c>
     </row>
@@ -4818,16 +3734,11 @@
       <c r="B170" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C170" s="8"/>
-      <c r="D170" s="8"/>
-      <c r="E170" s="8"/>
-      <c r="F170" s="8"/>
-      <c r="G170" s="8"/>
-      <c r="H170" s="7">
+      <c r="H170" s="3">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="J170" s="11" t="s">
+      <c r="J170" s="6" t="s">
         <v>195</v>
       </c>
     </row>
@@ -4838,16 +3749,11 @@
       <c r="B171" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C171" s="8"/>
-      <c r="D171" s="8"/>
-      <c r="E171" s="8"/>
-      <c r="F171" s="8"/>
-      <c r="G171" s="8"/>
-      <c r="H171" s="7">
+      <c r="H171" s="3">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="J171" s="11" t="s">
+      <c r="J171" s="6" t="s">
         <v>196</v>
       </c>
     </row>
@@ -4858,16 +3764,11 @@
       <c r="B172" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C172" s="8"/>
-      <c r="D172" s="8"/>
-      <c r="E172" s="8"/>
-      <c r="F172" s="8"/>
-      <c r="G172" s="8"/>
-      <c r="H172" s="7">
+      <c r="H172" s="3">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="J172" s="11" t="s">
+      <c r="J172" s="6" t="s">
         <v>197</v>
       </c>
     </row>
@@ -4878,16 +3779,11 @@
       <c r="B173" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C173" s="8"/>
-      <c r="D173" s="8"/>
-      <c r="E173" s="8"/>
-      <c r="F173" s="8"/>
-      <c r="G173" s="8"/>
-      <c r="H173" s="7">
+      <c r="H173" s="3">
         <f t="shared" ref="H173" si="35">SUM(C173:G173)</f>
         <v>0</v>
       </c>
-      <c r="J173" s="11" t="s">
+      <c r="J173" s="6" t="s">
         <v>151</v>
       </c>
     </row>
@@ -4898,16 +3794,11 @@
       <c r="B174" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C174" s="8"/>
-      <c r="D174" s="8"/>
-      <c r="E174" s="8"/>
-      <c r="F174" s="8"/>
-      <c r="G174" s="8"/>
-      <c r="H174" s="7">
+      <c r="H174" s="3">
         <f t="shared" ref="H174" si="36">SUM(C174:G174)</f>
         <v>0</v>
       </c>
-      <c r="J174" s="11" t="s">
+      <c r="J174" s="6" t="s">
         <v>152</v>
       </c>
     </row>
@@ -4918,16 +3809,11 @@
       <c r="B175" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C175" s="8"/>
-      <c r="D175" s="8"/>
-      <c r="E175" s="8"/>
-      <c r="F175" s="8"/>
-      <c r="G175" s="8"/>
-      <c r="H175" s="7">
+      <c r="H175" s="3">
         <f t="shared" ref="H175" si="37">SUM(C175:G175)</f>
         <v>0</v>
       </c>
-      <c r="J175" s="11" t="s">
+      <c r="J175" s="6" t="s">
         <v>153</v>
       </c>
     </row>
@@ -4938,16 +3824,11 @@
       <c r="B176" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C176" s="8"/>
-      <c r="D176" s="8"/>
-      <c r="E176" s="8"/>
-      <c r="F176" s="8"/>
-      <c r="G176" s="8"/>
-      <c r="H176" s="7">
+      <c r="H176" s="3">
         <f t="shared" ref="H176" si="38">SUM(C176:G176)</f>
         <v>0</v>
       </c>
-      <c r="J176" s="11" t="s">
+      <c r="J176" s="6" t="s">
         <v>154</v>
       </c>
     </row>
@@ -4958,16 +3839,11 @@
       <c r="B177" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C177" s="8"/>
-      <c r="D177" s="8"/>
-      <c r="E177" s="8"/>
-      <c r="F177" s="8"/>
-      <c r="G177" s="8"/>
-      <c r="H177" s="7">
+      <c r="H177" s="3">
         <f t="shared" ref="H177" si="39">SUM(C177:G177)</f>
         <v>0</v>
       </c>
-      <c r="J177" s="11" t="s">
+      <c r="J177" s="6" t="s">
         <v>155</v>
       </c>
     </row>
@@ -4978,16 +3854,11 @@
       <c r="B178" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C178" s="8"/>
-      <c r="D178" s="8"/>
-      <c r="E178" s="8"/>
-      <c r="F178" s="8"/>
-      <c r="G178" s="8"/>
-      <c r="H178" s="7">
+      <c r="H178" s="3">
         <f t="shared" ref="H178" si="40">SUM(C178:G178)</f>
         <v>0</v>
       </c>
-      <c r="J178" s="11" t="s">
+      <c r="J178" s="6" t="s">
         <v>156</v>
       </c>
     </row>
@@ -4998,16 +3869,11 @@
       <c r="B179" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C179" s="8"/>
-      <c r="D179" s="8"/>
-      <c r="E179" s="8"/>
-      <c r="F179" s="8"/>
-      <c r="G179" s="8"/>
-      <c r="H179" s="7">
+      <c r="H179" s="3">
         <f t="shared" ref="H179" si="41">SUM(C179:G179)</f>
         <v>0</v>
       </c>
-      <c r="J179" s="11" t="s">
+      <c r="J179" s="6" t="s">
         <v>157</v>
       </c>
     </row>
@@ -5018,16 +3884,11 @@
       <c r="B180" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C180" s="8"/>
-      <c r="D180" s="8"/>
-      <c r="E180" s="8"/>
-      <c r="F180" s="8"/>
-      <c r="G180" s="8"/>
-      <c r="H180" s="7">
+      <c r="H180" s="3">
         <f t="shared" ref="H180" si="42">SUM(C180:G180)</f>
         <v>0</v>
       </c>
-      <c r="J180" s="11" t="s">
+      <c r="J180" s="6" t="s">
         <v>158</v>
       </c>
     </row>
@@ -5038,16 +3899,11 @@
       <c r="B181" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C181" s="8"/>
-      <c r="D181" s="8"/>
-      <c r="E181" s="8"/>
-      <c r="F181" s="8"/>
-      <c r="G181" s="8"/>
-      <c r="H181" s="7">
+      <c r="H181" s="3">
         <f t="shared" ref="H181" si="43">SUM(C181:G181)</f>
         <v>0</v>
       </c>
-      <c r="J181" s="11" t="s">
+      <c r="J181" s="6" t="s">
         <v>159</v>
       </c>
     </row>
@@ -5058,16 +3914,11 @@
       <c r="B182" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C182" s="8"/>
-      <c r="D182" s="8"/>
-      <c r="E182" s="8"/>
-      <c r="F182" s="8"/>
-      <c r="G182" s="8"/>
-      <c r="H182" s="7">
+      <c r="H182" s="3">
         <f t="shared" ref="H182" si="44">SUM(C182:G182)</f>
         <v>0</v>
       </c>
-      <c r="J182" s="11" t="s">
+      <c r="J182" s="6" t="s">
         <v>160</v>
       </c>
     </row>
@@ -5078,16 +3929,11 @@
       <c r="B183" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C183" s="8"/>
-      <c r="D183" s="8"/>
-      <c r="E183" s="8"/>
-      <c r="F183" s="8"/>
-      <c r="G183" s="8"/>
-      <c r="H183" s="7">
+      <c r="H183" s="3">
         <f t="shared" ref="H183:H184" si="45">SUM(C183:G183)</f>
         <v>0</v>
       </c>
-      <c r="J183" s="11" t="s">
+      <c r="J183" s="6" t="s">
         <v>161</v>
       </c>
     </row>
@@ -5098,30 +3944,25 @@
       <c r="B184" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C184" s="8"/>
-      <c r="D184" s="8"/>
-      <c r="E184" s="8"/>
-      <c r="F184" s="8"/>
-      <c r="G184" s="8"/>
-      <c r="H184" s="7">
+      <c r="H184" s="3">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="J184" s="11" t="s">
+      <c r="J184" s="6" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="185" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J185" s="11"/>
+      <c r="J185" s="6"/>
     </row>
     <row r="186" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J186" s="11"/>
+      <c r="J186" s="6"/>
     </row>
     <row r="187" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J187" s="11"/>
+      <c r="J187" s="6"/>
     </row>
     <row r="188" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J188" s="11"/>
+      <c r="J188" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="10">
